--- a/data/trans_orig/IP07C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC5E7F34-A952-40C3-9D96-8528F147FD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBC6B02-B874-4CF8-A335-ECD5DCB3A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{28B463A7-D2BB-473B-97E6-C508E07CAB48}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0F507D88-7130-4755-9D4B-549DCFB9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,250 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>14,42%</t>
@@ -100,33 +340,6 @@
     <t>19,43%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>48,16%</t>
   </si>
   <si>
@@ -154,30 +367,6 @@
     <t>52,87%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>36,04%</t>
   </si>
   <si>
@@ -205,120 +394,147 @@
     <t>42,05%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
     <t>11,54%</t>
   </si>
   <si>
@@ -346,27 +562,6 @@
     <t>16,24%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
     <t>47,91%</t>
   </si>
   <si>
@@ -394,21 +589,6 @@
     <t>56,52%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>38,33%</t>
   </si>
   <si>
@@ -436,184 +616,40 @@
     <t>43,39%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>12,31%</t>
@@ -640,27 +676,6 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>48,09%</t>
   </si>
   <si>
@@ -688,21 +703,6 @@
     <t>51,67%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>38,12%</t>
   </si>
   <si>
@@ -730,6 +730,222 @@
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>11,91%</t>
   </si>
   <si>
@@ -757,24 +973,6 @@
     <t>13,97%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
     <t>45,37%</t>
   </si>
   <si>
@@ -802,24 +1000,6 @@
     <t>50,09%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
     <t>40,64%</t>
   </si>
   <si>
@@ -847,115 +1027,154 @@
     <t>49,54%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>14,05%</t>
@@ -979,33 +1198,9 @@
     <t>9,81%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
     <t>41,05%</t>
   </si>
   <si>
@@ -1033,24 +1228,6 @@
     <t>52,06%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
     <t>33,22%</t>
   </si>
   <si>
@@ -1075,181 +1252,40 @@
     <t>48,96%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>13,26%</t>
@@ -1279,27 +1315,6 @@
     <t>12,58%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>34,29%</t>
   </si>
   <si>
@@ -1324,21 +1339,6 @@
     <t>44,81%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>45,81%</t>
   </si>
   <si>
@@ -1369,6 +1369,207 @@
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
     <t>5,81%</t>
   </si>
   <si>
@@ -1396,21 +1597,6 @@
     <t>11,37%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
     <t>35,12%</t>
   </si>
   <si>
@@ -1435,24 +1621,6 @@
     <t>45,59%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>55,7%</t>
   </si>
   <si>
@@ -1480,100 +1648,109 @@
     <t>54,99%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>12,41%</t>
@@ -1603,24 +1780,6 @@
     <t>15,86%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>32,33%</t>
   </si>
   <si>
@@ -1648,12 +1807,6 @@
     <t>39,07%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>54,0%</t>
   </si>
   <si>
@@ -1681,157 +1834,37 @@
     <t>60,26%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>10,23%</t>
@@ -1861,21 +1894,6 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>36,42%</t>
   </si>
   <si>
@@ -1898,24 +1916,6 @@
   </si>
   <si>
     <t>34,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -2334,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E64BDE-4609-4CD9-BF50-DC8677EF20AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD504C54-2E55-4D89-8581-41D66BC857AC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2452,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13278</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2467,238 +2467,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15235</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>44</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28512</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>44357</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>45584</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>89941</v>
+        <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>679</v>
+        <v>9397</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7790</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>661</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
       <c r="N7" s="7">
-        <v>1340</v>
+        <v>17187</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>33198</v>
+        <v>3083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>36394</v>
+        <v>4623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>69592</v>
+        <v>7706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,108 +2707,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>98527</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>190631</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7274</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5249</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>12523</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -2817,13 +2817,13 @@
         <v>1361</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2832,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2847,121 +2847,121 @@
         <v>1361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>28527</v>
+        <v>7274</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>24531</v>
+        <v>5249</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>53059</v>
+        <v>12523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>28527</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24531</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7">
+        <v>79</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53059</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>29</v>
@@ -2970,13 +2970,13 @@
         <v>18326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2985,13 +2985,13 @@
         <v>14380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -3000,13 +3000,13 @@
         <v>32706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3021,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -3036,13 +3036,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -3051,270 +3051,270 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>10173</v>
+        <v>679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>9084</v>
+        <v>661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>19257</v>
+        <v>1340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>593</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>654</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1257</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1380</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
       <c r="N17" s="7">
-        <v>2637</v>
+        <v>1247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>42225</v>
+        <v>13278</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>40299</v>
+        <v>15235</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N18" s="7">
-        <v>82524</v>
+        <v>28512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>695</v>
+        <v>44357</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>45584</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>695</v>
+        <v>89941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
-        <v>33780</v>
+        <v>33198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I20" s="7">
-        <v>27545</v>
+        <v>36394</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="N20" s="7">
-        <v>61325</v>
+        <v>69592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,54 +3323,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>98527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>190631</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3382,49 +3382,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3433,196 +3433,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>9397</v>
+        <v>7311</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>7790</v>
+        <v>2987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>17187</v>
+        <v>10297</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>21107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>45118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>3083</v>
+        <v>29336</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="7">
+        <v>49</v>
+      </c>
+      <c r="I26" s="7">
+        <v>30295</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>95</v>
+      </c>
+      <c r="N26" s="7">
+        <v>59631</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4623</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7706</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,252 +3631,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>116311</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>695</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
-        <v>7311</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="L28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>695</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2987</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M28" s="7">
-        <v>18</v>
-      </c>
-      <c r="N28" s="7">
-        <v>10297</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>1264</v>
+        <v>1380</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>1264</v>
+        <v>2637</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>24011</v>
+        <v>10173</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9084</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" s="7">
+        <v>27</v>
+      </c>
+      <c r="N30" s="7">
+        <v>19257</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="7">
-        <v>34</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21107</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="7">
-        <v>72</v>
-      </c>
-      <c r="N30" s="7">
-        <v>45118</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>42225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>40299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M31" s="7">
+        <v>114</v>
+      </c>
+      <c r="N31" s="7">
+        <v>82524</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>182</v>
@@ -3885,13 +3885,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" s="7">
-        <v>29336</v>
+        <v>33780</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>183</v>
@@ -3903,10 +3903,10 @@
         <v>185</v>
       </c>
       <c r="H32" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I32" s="7">
-        <v>30295</v>
+        <v>27545</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>186</v>
@@ -3918,10 +3918,10 @@
         <v>188</v>
       </c>
       <c r="M32" s="7">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="N32" s="7">
-        <v>59631</v>
+        <v>61325</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>189</v>
@@ -3939,49 +3939,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>60658</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>116311</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,55 +3992,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>38036</v>
+        <v>1374</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>193</v>
       </c>
       <c r="H34" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>33483</v>
+        <v>661</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2035</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M34" s="7">
-        <v>109</v>
-      </c>
-      <c r="N34" s="7">
-        <v>71519</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -4049,13 +4049,13 @@
         <v>3211</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -4064,13 +4064,13 @@
         <v>3298</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4079,106 +4079,106 @@
         <v>6509</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="D36" s="7">
-        <v>148516</v>
+        <v>38036</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="7">
+        <v>51</v>
+      </c>
+      <c r="I36" s="7">
+        <v>33483</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>109</v>
+      </c>
+      <c r="N36" s="7">
+        <v>71519</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H36" s="7">
-        <v>204</v>
-      </c>
-      <c r="I36" s="7">
-        <v>139312</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="7">
-        <v>427</v>
-      </c>
-      <c r="N36" s="7">
-        <v>287829</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="D37" s="7">
-        <v>1374</v>
+        <v>148516</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="7">
         <v>204</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="I37" s="7">
+        <v>139312</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>661</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>427</v>
       </c>
       <c r="N37" s="7">
-        <v>2035</v>
+        <v>287829</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>218</v>
@@ -4193,7 +4193,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>177</v>
@@ -4220,7 +4220,7 @@
         <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>225</v>
@@ -4253,13 +4253,13 @@
         <v>308859</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>431</v>
@@ -4268,13 +4268,13 @@
         <v>289992</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>896</v>
@@ -4283,13 +4283,13 @@
         <v>598851</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE58BA08-D841-4F19-BD61-A11E85DF38F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6E2197-3D8C-4001-8E43-75DE778E445F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4428,253 +4428,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11332</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7931</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" s="7">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19264</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1218</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1843</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>43179</v>
+        <v>982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>43035</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M6" s="7">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>86214</v>
+        <v>982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>1355</v>
+        <v>6908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>726</v>
+        <v>4974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>2081</v>
+        <v>11882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>38675</v>
+        <v>6600</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>44927</v>
+        <v>6301</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>83603</v>
+        <v>12901</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,108 +4683,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>95167</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>193004</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>6574</v>
+        <v>680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>4713</v>
+        <v>697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>11286</v>
+        <v>1377</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -4793,13 +4793,13 @@
         <v>1264</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4808,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4823,121 +4823,121 @@
         <v>1264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>20158</v>
+        <v>6574</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>20565</v>
+        <v>4713</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>40723</v>
+        <v>11286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>680</v>
+        <v>20158</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>697</v>
+        <v>20565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>1377</v>
+        <v>40723</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>42</v>
@@ -4946,13 +4946,13 @@
         <v>28811</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4961,13 +4961,13 @@
         <v>24820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4976,13 +4976,13 @@
         <v>53632</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4997,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>71</v>
@@ -5012,13 +5012,13 @@
         <v>50795</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -5027,270 +5027,270 @@
         <v>108282</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>12621</v>
+        <v>1355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4611</v>
+        <v>726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>17233</v>
+        <v>2081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1936</v>
+        <v>625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1936</v>
+        <v>1843</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>36886</v>
+        <v>11332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>43256</v>
+        <v>7931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N18" s="7">
-        <v>80142</v>
+        <v>19264</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>777</v>
+        <v>43179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="I19" s="7">
-        <v>1536</v>
+        <v>43035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="N19" s="7">
-        <v>2313</v>
+        <v>86214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>37634</v>
+        <v>38675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>36321</v>
+        <v>44927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="N20" s="7">
-        <v>73955</v>
+        <v>83603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,72 +5299,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85725</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="N21" s="7">
-        <v>175578</v>
+        <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5373,232 +5373,232 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>2481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11715</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5694</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M24" s="7">
         <v>28</v>
       </c>
-      <c r="C24" s="7">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7">
-        <v>6908</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4974</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M24" s="7">
-        <v>14</v>
-      </c>
       <c r="N24" s="7">
-        <v>11882</v>
+        <v>17409</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>18510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>28475</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>46985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7">
-        <v>6600</v>
+        <v>37669</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="7">
+        <v>43</v>
+      </c>
+      <c r="I26" s="7">
+        <v>28517</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6301</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>102</v>
+      </c>
+      <c r="N26" s="7">
+        <v>66186</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="M26" s="7">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12901</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,270 +5607,270 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>134248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>11715</v>
+        <v>777</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1536</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2313</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H28" s="7">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5694</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M28" s="7">
-        <v>28</v>
-      </c>
-      <c r="N28" s="7">
-        <v>17409</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>1187</v>
+        <v>1936</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1936</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="H29" s="7">
-        <v>4</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2481</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M29" s="7">
-        <v>6</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3668</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>18510</v>
+        <v>12621</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4611</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>22</v>
+      </c>
+      <c r="N30" s="7">
+        <v>17233</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H30" s="7">
-        <v>44</v>
-      </c>
-      <c r="I30" s="7">
-        <v>28475</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M30" s="7">
-        <v>73</v>
-      </c>
-      <c r="N30" s="7">
-        <v>46985</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>36886</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" s="7">
+        <v>55</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43256</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>106</v>
+      </c>
+      <c r="N31" s="7">
+        <v>80142</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D32" s="7">
-        <v>37669</v>
+        <v>37634</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>396</v>
@@ -5879,10 +5879,10 @@
         <v>397</v>
       </c>
       <c r="H32" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I32" s="7">
-        <v>28517</v>
+        <v>36321</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>398</v>
@@ -5894,10 +5894,10 @@
         <v>400</v>
       </c>
       <c r="M32" s="7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N32" s="7">
-        <v>66186</v>
+        <v>73955</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>401</v>
@@ -5915,49 +5915,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7">
-        <v>69081</v>
+        <v>89854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N33" s="7">
-        <v>134248</v>
+        <v>175578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,10 +5968,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>43224</v>
+        <v>2813</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>404</v>
@@ -5983,40 +5983,40 @@
         <v>406</v>
       </c>
       <c r="H34" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>22949</v>
+        <v>2959</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>8</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5771</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M34" s="7">
-        <v>97</v>
-      </c>
-      <c r="N34" s="7">
-        <v>66173</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>8</v>
@@ -6025,13 +6025,13 @@
         <v>5012</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -6040,13 +6040,13 @@
         <v>3698</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -6055,112 +6055,112 @@
         <v>8710</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="D36" s="7">
-        <v>125640</v>
+        <v>43224</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>416</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H36" s="7">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7">
+        <v>22949</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="H36" s="7">
-        <v>199</v>
-      </c>
-      <c r="I36" s="7">
-        <v>140305</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>97</v>
+      </c>
+      <c r="N36" s="7">
+        <v>66173</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="M36" s="7">
-        <v>381</v>
-      </c>
-      <c r="N36" s="7">
-        <v>265946</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="D37" s="7">
-        <v>2813</v>
+        <v>125640</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H37" s="7">
+        <v>199</v>
+      </c>
+      <c r="I37" s="7">
+        <v>140305</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>381</v>
+      </c>
+      <c r="N37" s="7">
+        <v>265946</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H37" s="7">
-        <v>4</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="M37" s="7">
-        <v>8</v>
-      </c>
-      <c r="N37" s="7">
-        <v>5771</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>432</v>
@@ -6169,7 +6169,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>217</v>
@@ -6229,13 +6229,13 @@
         <v>326078</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6244,13 +6244,13 @@
         <v>310798</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>916</v>
@@ -6259,13 +6259,13 @@
         <v>636877</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC68EA21-4811-48D7-BC34-750BDFFFF055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B46DF0-450C-430D-A03A-D99EF3C7B59A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6404,70 +6404,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5970</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10269</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="M4" s="7">
-        <v>25</v>
-      </c>
-      <c r="N4" s="7">
-        <v>16239</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2813</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>453</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6476,181 +6476,181 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2813</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>36063</v>
+        <v>3233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>45870</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>459</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>460</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>81934</v>
+        <v>3233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>644</v>
+        <v>2891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>1884</v>
+        <v>6517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>2528</v>
+        <v>9408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>458</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>57207</v>
+        <v>7083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>44247</v>
+        <v>6206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="M8" s="7">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>101454</v>
+        <v>13289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>477</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,108 +6659,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>102697</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102270</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>204968</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>8402</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>480</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>7468</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>483</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>484</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>15870</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>486</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>487</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -6769,13 +6769,13 @@
         <v>713</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6784,13 +6784,13 @@
         <v>687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6799,121 +6799,121 @@
         <v>1400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>22926</v>
+        <v>8402</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>20681</v>
+        <v>7468</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>43607</v>
+        <v>15870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>22926</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>20681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>43607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>34</v>
@@ -6922,13 +6922,13 @@
         <v>25796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -6937,13 +6937,13 @@
         <v>27445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -6952,13 +6952,13 @@
         <v>53241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6973,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6988,13 +6988,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7003,270 +7003,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>12355</v>
+        <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>513</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>11515</v>
+        <v>1884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>23870</v>
+        <v>2528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>610</v>
+        <v>2813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>523</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2126</v>
+        <v>2813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>525</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>32180</v>
+        <v>5970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>35876</v>
+        <v>10269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>68056</v>
+        <v>16239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>636</v>
+        <v>36063</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>536</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>45870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="N19" s="7">
-        <v>636</v>
+        <v>81934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>53746</v>
+        <v>57207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I20" s="7">
-        <v>54978</v>
+        <v>44247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N20" s="7">
-        <v>108723</v>
+        <v>101454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,123 +7275,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>102697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>103884</v>
+        <v>102270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="N21" s="7">
-        <v>203411</v>
+        <v>204968</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>3233</v>
+        <v>549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
         <v>549</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="M22" s="7">
-        <v>4</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3233</v>
-      </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>3241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>537</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7400,181 +7400,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>539</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>553</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>2891</v>
+        <v>5642</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>6517</v>
+        <v>5564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>9408</v>
+        <v>11207</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>32657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>549</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>550</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>28039</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>552</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>550</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>60696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>553</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>7083</v>
+        <v>32531</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H26" s="7">
+        <v>57</v>
+      </c>
+      <c r="I26" s="7">
+        <v>36306</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="M26" s="7">
+        <v>103</v>
+      </c>
+      <c r="N26" s="7">
+        <v>68837</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6206</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="M26" s="7">
-        <v>15</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13289</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,252 +7583,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>5642</v>
+        <v>636</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>571</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>572</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>5564</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>574</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="M28" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>11207</v>
+        <v>636</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>577</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>578</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>579</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>3241</v>
+        <v>610</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>567</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>568</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>3241</v>
+        <v>2126</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>430</v>
+        <v>569</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>32657</v>
+        <v>12355</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>398</v>
+        <v>571</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>28039</v>
+        <v>11515</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>401</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="N30" s="7">
-        <v>60696</v>
+        <v>23870</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>578</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7">
-        <v>549</v>
+        <v>32180</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>580</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>581</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>282</v>
+        <v>582</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>35876</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>583</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>584</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>104</v>
+        <v>585</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N31" s="7">
-        <v>549</v>
+        <v>68056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>455</v>
+        <v>586</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>587</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>588</v>
@@ -7837,13 +7837,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7">
-        <v>32531</v>
+        <v>53746</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>589</v>
@@ -7855,10 +7855,10 @@
         <v>591</v>
       </c>
       <c r="H32" s="7">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I32" s="7">
-        <v>36306</v>
+        <v>54978</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>592</v>
@@ -7870,10 +7870,10 @@
         <v>594</v>
       </c>
       <c r="M32" s="7">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="N32" s="7">
-        <v>68837</v>
+        <v>108723</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>595</v>
@@ -7891,49 +7891,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,10 +7944,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>35603</v>
+        <v>1828</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>598</v>
@@ -7956,43 +7956,43 @@
         <v>599</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="H34" s="7">
-        <v>49</v>
-      </c>
-      <c r="I34" s="7">
-        <v>34816</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3712</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="M34" s="7">
-        <v>98</v>
-      </c>
-      <c r="N34" s="7">
-        <v>70418</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>604</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>606</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>10</v>
@@ -8001,13 +8001,13 @@
         <v>7378</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -8016,13 +8016,13 @@
         <v>2202</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -8031,121 +8031,121 @@
         <v>9580</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7">
-        <v>126718</v>
+        <v>35603</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H36" s="7">
+        <v>49</v>
+      </c>
+      <c r="I36" s="7">
+        <v>34816</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="H36" s="7">
-        <v>197</v>
-      </c>
-      <c r="I36" s="7">
-        <v>136984</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>98</v>
+      </c>
+      <c r="N36" s="7">
+        <v>70418</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="M36" s="7">
-        <v>371</v>
-      </c>
-      <c r="N36" s="7">
-        <v>263701</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="D37" s="7">
-        <v>1828</v>
+        <v>126718</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>197</v>
+      </c>
+      <c r="I37" s="7">
+        <v>136984</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>371</v>
+      </c>
+      <c r="N37" s="7">
+        <v>263701</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3712</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>203</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>242</v>
@@ -8205,13 +8205,13 @@
         <v>347889</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>492</v>
@@ -8220,13 +8220,13 @@
         <v>345068</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>970</v>
@@ -8235,13 +8235,13 @@
         <v>692956</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7F6711-C8FB-4BFF-B514-B04D6A4FC48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16AB8C2B-B079-40C0-9AAB-B2C7BAF32824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E362A6A-D401-4AC5-AD06-12E7BB2DE27C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA819509-174E-4B40-9BED-2500E013742A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="638">
   <si>
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,1858 +76,1882 @@
     <t>24,71%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>29,84%</t>
   </si>
   <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
   </si>
   <si>
     <t>43,73%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FE23E3-8C69-41DB-BB5B-BD99A63E653D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADE58A-DB44-4DD5-9BA5-6829209D2BF3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2840,10 +2864,10 @@
         <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -2852,13 +2876,13 @@
         <v>53059</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2897,13 @@
         <v>7274</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2888,13 +2912,13 @@
         <v>5249</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2903,13 +2927,13 @@
         <v>12523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2948,13 @@
         <v>1361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2945,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2954,13 +2978,13 @@
         <v>1361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +3005,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2996,7 +3020,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3011,7 +3035,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3079,13 +3103,13 @@
         <v>33198</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -3094,13 +3118,13 @@
         <v>36394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -3109,13 +3133,13 @@
         <v>69592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3154,13 @@
         <v>44357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -3145,13 +3169,13 @@
         <v>45584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -3160,13 +3184,13 @@
         <v>89941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3205,13 @@
         <v>13278</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -3196,13 +3220,13 @@
         <v>15235</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -3211,13 +3235,13 @@
         <v>28512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3256,13 @@
         <v>593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3247,13 +3271,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3262,13 +3286,13 @@
         <v>1247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3307,13 @@
         <v>679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3298,13 +3322,13 @@
         <v>661</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3313,13 +3337,13 @@
         <v>1340</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,7 +3399,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3387,13 +3411,13 @@
         <v>29336</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -3402,13 +3426,13 @@
         <v>30295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -3417,13 +3441,13 @@
         <v>59631</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3462,13 @@
         <v>24011</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -3453,13 +3477,13 @@
         <v>21107</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -3468,13 +3492,13 @@
         <v>45118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3513,13 @@
         <v>7311</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3504,13 +3528,13 @@
         <v>2987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3519,13 +3543,13 @@
         <v>10297</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3570,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3555,13 +3579,13 @@
         <v>1264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3570,13 +3594,13 @@
         <v>1264</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3621,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3612,7 +3636,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3627,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3707,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3695,13 +3719,13 @@
         <v>33780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -3710,13 +3734,13 @@
         <v>27545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>84</v>
@@ -3725,13 +3749,13 @@
         <v>61325</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3770,13 @@
         <v>42225</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -3761,13 +3785,13 @@
         <v>40299</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -3776,13 +3800,13 @@
         <v>82524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3821,13 @@
         <v>10173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3812,13 +3836,13 @@
         <v>9084</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3827,13 +3851,13 @@
         <v>19257</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3872,13 @@
         <v>1257</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3863,13 +3887,13 @@
         <v>1380</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3878,13 +3902,13 @@
         <v>2637</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3923,13 @@
         <v>695</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3920,7 +3944,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3929,13 +3953,13 @@
         <v>695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4027,13 @@
         <v>117723</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>170</v>
@@ -4018,13 +4042,13 @@
         <v>113237</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>347</v>
@@ -4033,13 +4057,13 @@
         <v>230960</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4078,13 @@
         <v>148516</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>204</v>
@@ -4069,13 +4093,13 @@
         <v>139312</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>427</v>
@@ -4084,13 +4108,13 @@
         <v>287829</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4129,13 @@
         <v>38036</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -4120,13 +4144,13 @@
         <v>33483</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -4135,13 +4159,13 @@
         <v>71519</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4180,13 @@
         <v>3211</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4171,13 +4195,13 @@
         <v>3298</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -4186,13 +4210,13 @@
         <v>6509</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4237,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4222,13 +4246,13 @@
         <v>661</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4237,13 +4261,13 @@
         <v>2035</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,7 +4323,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C8CFC5-917D-4F08-AD55-007A69407BDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4D6A01-3B57-4C04-8C0D-B318341B6700}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4337,7 +4361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4444,13 +4468,13 @@
         <v>6600</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4459,13 +4483,13 @@
         <v>6301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4474,13 +4498,13 @@
         <v>12901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4519,13 @@
         <v>6908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4510,13 +4534,13 @@
         <v>4974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4525,13 +4549,13 @@
         <v>11882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4570,13 @@
         <v>982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4567,7 +4591,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4576,13 +4600,13 @@
         <v>982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +4642,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4633,7 +4657,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4693,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4684,7 +4708,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4776,13 @@
         <v>28811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4767,13 +4791,13 @@
         <v>24820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4782,13 +4806,13 @@
         <v>53632</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4827,13 @@
         <v>20158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4818,13 +4842,13 @@
         <v>20565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -4833,13 +4857,13 @@
         <v>40723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4878,13 @@
         <v>6574</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4869,13 +4893,13 @@
         <v>4713</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -4884,13 +4908,13 @@
         <v>11286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4929,13 @@
         <v>1264</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4926,7 +4950,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4935,13 +4959,13 @@
         <v>1264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4980,13 @@
         <v>680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4971,13 +4995,13 @@
         <v>697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4986,13 +5010,13 @@
         <v>1377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5072,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5060,13 +5084,13 @@
         <v>38675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -5075,13 +5099,13 @@
         <v>44927</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -5090,13 +5114,13 @@
         <v>83603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5135,13 @@
         <v>43179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5126,13 +5150,13 @@
         <v>43035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -5141,13 +5165,13 @@
         <v>86214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5186,13 @@
         <v>11332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5177,13 +5201,13 @@
         <v>7931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5192,13 +5216,13 @@
         <v>19264</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5237,13 @@
         <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5228,13 +5252,13 @@
         <v>1218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5243,13 +5267,13 @@
         <v>1843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5288,13 @@
         <v>1355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5279,13 +5303,13 @@
         <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5294,13 +5318,13 @@
         <v>2081</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,7 +5380,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5368,13 +5392,13 @@
         <v>37669</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5383,13 +5407,13 @@
         <v>28517</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>102</v>
@@ -5398,13 +5422,13 @@
         <v>66186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5443,13 @@
         <v>18510</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -5434,13 +5458,13 @@
         <v>28475</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -5449,13 +5473,13 @@
         <v>46985</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5494,13 @@
         <v>11715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5485,13 +5509,13 @@
         <v>5694</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -5500,13 +5524,13 @@
         <v>17409</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5545,13 @@
         <v>1187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5536,13 +5560,13 @@
         <v>2481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5551,13 +5575,13 @@
         <v>3668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,7 +5602,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5593,7 +5617,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5608,7 +5632,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5688,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5700,13 @@
         <v>37634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -5691,13 +5715,13 @@
         <v>36321</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M28" s="7">
         <v>99</v>
@@ -5706,13 +5730,13 @@
         <v>73955</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5751,13 @@
         <v>36886</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5742,13 +5766,13 @@
         <v>43256</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -5757,13 +5781,13 @@
         <v>80142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5802,13 @@
         <v>12621</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5793,13 +5817,13 @@
         <v>4611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>33</v>
+        <v>387</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -5808,13 +5832,13 @@
         <v>17233</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5853,13 @@
         <v>1936</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>387</v>
+        <v>139</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5850,7 +5874,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -5859,13 +5883,13 @@
         <v>1936</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5904,13 @@
         <v>777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5895,13 +5919,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -5910,13 +5934,13 @@
         <v>2313</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6008,13 @@
         <v>149390</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H34" s="7">
         <v>199</v>
@@ -5999,13 +6023,13 @@
         <v>140887</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M34" s="7">
         <v>416</v>
@@ -6014,13 +6038,13 @@
         <v>290277</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6059,13 @@
         <v>125640</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H35" s="7">
         <v>199</v>
@@ -6050,13 +6074,13 @@
         <v>140305</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M35" s="7">
         <v>381</v>
@@ -6065,13 +6089,13 @@
         <v>265946</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6110,13 @@
         <v>43224</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -6101,13 +6125,13 @@
         <v>22949</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M36" s="7">
         <v>97</v>
@@ -6116,13 +6140,13 @@
         <v>66173</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6161,13 @@
         <v>5012</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -6152,13 +6176,13 @@
         <v>3698</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -6167,13 +6191,13 @@
         <v>8710</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>181</v>
+        <v>437</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>431</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6212,13 @@
         <v>2813</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>433</v>
+        <v>225</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -6203,13 +6227,13 @@
         <v>2959</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6218,13 +6242,13 @@
         <v>5771</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>226</v>
+        <v>366</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,7 +6304,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +6325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421C538-431D-4697-9717-37392641792B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB68D210-D6F4-46A9-86A7-E5C641FC82D8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6318,7 +6342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6425,13 +6449,13 @@
         <v>7083</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6440,13 +6464,13 @@
         <v>6206</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -6455,13 +6479,13 @@
         <v>13289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6500,13 @@
         <v>2891</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6491,13 +6515,13 @@
         <v>6517</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6506,13 +6530,13 @@
         <v>9408</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6551,13 @@
         <v>3233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6548,7 +6572,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6557,13 +6581,13 @@
         <v>3233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>461</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,7 +6623,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6614,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,7 +6674,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6665,7 +6689,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6757,13 @@
         <v>25796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -6748,13 +6772,13 @@
         <v>27445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -6763,13 +6787,13 @@
         <v>53241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6808,13 @@
         <v>22926</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -6799,13 +6823,13 @@
         <v>20681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -6814,13 +6838,13 @@
         <v>43607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6859,13 @@
         <v>8402</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -6850,13 +6874,13 @@
         <v>7468</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -6865,13 +6889,13 @@
         <v>15870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6910,13 @@
         <v>713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6901,13 +6925,13 @@
         <v>687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6916,13 +6940,13 @@
         <v>1400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6967,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6958,7 +6982,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6973,7 +6997,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7053,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7041,13 +7065,13 @@
         <v>57207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -7056,13 +7080,13 @@
         <v>44247</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -7071,13 +7095,13 @@
         <v>101454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7116,13 @@
         <v>36063</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -7107,13 +7131,13 @@
         <v>45870</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>122</v>
@@ -7122,13 +7146,13 @@
         <v>81934</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7167,13 @@
         <v>5970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -7158,13 +7182,13 @@
         <v>10269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>286</v>
+        <v>522</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -7173,13 +7197,13 @@
         <v>16239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7218,13 @@
         <v>2813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7215,7 +7239,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7224,13 +7248,13 @@
         <v>2813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7269,13 @@
         <v>644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7260,13 +7284,13 @@
         <v>1884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7275,13 +7299,13 @@
         <v>2528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7349,13 +7373,13 @@
         <v>32531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -7364,13 +7388,13 @@
         <v>36306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -7379,13 +7403,13 @@
         <v>68837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7424,13 @@
         <v>32657</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -7415,13 +7439,13 @@
         <v>28039</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -7430,13 +7454,13 @@
         <v>60696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7475,13 @@
         <v>5642</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -7466,13 +7490,13 @@
         <v>5564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>399</v>
+        <v>556</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>95</v>
+        <v>557</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -7481,13 +7505,13 @@
         <v>11207</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7526,13 @@
         <v>3241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7523,7 +7547,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7532,13 +7556,13 @@
         <v>3241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>556</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7577,13 @@
         <v>549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7574,7 +7598,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7583,13 +7607,13 @@
         <v>549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>566</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +7669,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7657,13 +7681,13 @@
         <v>53746</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -7672,13 +7696,13 @@
         <v>54978</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="M28" s="7">
         <v>142</v>
@@ -7687,13 +7711,13 @@
         <v>108723</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7732,13 @@
         <v>32180</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -7723,13 +7747,13 @@
         <v>35876</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -7738,13 +7762,13 @@
         <v>68056</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7783,13 @@
         <v>12355</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -7774,13 +7798,13 @@
         <v>11515</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -7789,13 +7813,13 @@
         <v>23870</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7834,13 @@
         <v>610</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7825,13 +7849,13 @@
         <v>1516</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -7840,13 +7864,13 @@
         <v>2126</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>114</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7885,13 @@
         <v>636</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7882,7 +7906,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7891,13 +7915,13 @@
         <v>636</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>593</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,13 +7989,13 @@
         <v>176363</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="H34" s="7">
         <v>240</v>
@@ -7980,13 +8004,13 @@
         <v>169182</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="M34" s="7">
         <v>482</v>
@@ -7995,13 +8019,13 @@
         <v>345544</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8040,13 @@
         <v>126718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="H35" s="7">
         <v>197</v>
@@ -8031,13 +8055,13 @@
         <v>136984</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="M35" s="7">
         <v>371</v>
@@ -8046,13 +8070,13 @@
         <v>263701</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>610</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>611</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8091,13 @@
         <v>35603</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>281</v>
+        <v>558</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>613</v>
+        <v>62</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -8082,13 +8106,13 @@
         <v>34816</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="M36" s="7">
         <v>98</v>
@@ -8097,13 +8121,13 @@
         <v>70418</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8142,13 @@
         <v>7378</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>620</v>
+        <v>439</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -8133,13 +8157,13 @@
         <v>2202</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>362</v>
+        <v>628</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -8148,13 +8172,13 @@
         <v>9580</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8193,13 @@
         <v>1828</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>555</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>31</v>
+        <v>631</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>174</v>
+        <v>632</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8184,13 +8208,13 @@
         <v>1884</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>218</v>
+        <v>633</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -8199,13 +8223,13 @@
         <v>3712</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>629</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,7 +8285,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
